--- a/Tabele SQL.xlsx
+++ b/Tabele SQL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>FirstDayOfNextYear</t>
   </si>
   <si>
-    <t>calendar</t>
-  </si>
-  <si>
     <t>IdTranType</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Pole opisuje dane o dniach kalendarza</t>
+  </si>
+  <si>
+    <t>Calendar</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +704,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,33 +829,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -862,14 +841,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -880,26 +889,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,47 +1225,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="11" t="s">
-        <v>125</v>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1269,15 +1275,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1287,51 +1293,51 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1341,59 +1347,59 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="G8" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="11" t="s">
-        <v>125</v>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1403,51 +1409,51 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4">
         <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4">
         <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1457,77 +1463,77 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="11" t="s">
-        <v>125</v>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1537,15 +1543,15 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1555,149 +1561,149 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>135</v>
+      </c>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4">
         <v>255</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="4">
         <v>255</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4">
         <v>255</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4">
         <v>255</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="G28" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="11" t="s">
-        <v>125</v>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="G31" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="G32" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1707,33 +1713,33 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="11"/>
+      <c r="C35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1743,59 +1749,59 @@
         <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="G36" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="G39" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -1805,15 +1811,15 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1823,77 +1829,77 @@
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="11"/>
+      <c r="C44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="28"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="G47" s="11" t="s">
-        <v>125</v>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="G47" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="G48" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1903,33 +1909,33 @@
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4">
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -1939,18 +1945,20 @@
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="G52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B47:E47"/>
@@ -1967,8 +1975,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1979,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,41 +2000,41 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+        <v>103</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,13 +2079,13 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2087,16 +2093,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2121,16 +2127,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2141,13 +2147,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2158,13 +2164,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2172,16 +2178,16 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4">
         <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,13 +2198,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,13 +2215,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,13 +2232,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2243,13 +2249,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2260,13 +2266,13 @@
         <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,13 +2283,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2291,16 +2297,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,13 +2317,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2325,16 +2331,16 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2359,16 +2365,16 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2376,16 +2382,16 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,13 +2402,13 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2413,13 +2419,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2430,13 +2436,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2447,13 +2453,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2464,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2481,13 +2487,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2498,13 +2504,13 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2515,13 +2521,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2544,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2552,160 +2558,160 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>145</v>
+      </c>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="19"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2716,75 +2722,75 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="19"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2795,91 +2801,91 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="19"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2890,91 +2896,91 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="19"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="G29" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -2985,438 +2991,433 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="G34" s="28"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="G36" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="G36" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="G37" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G42" s="19"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="G43" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="G43" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="G44" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="4">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G48" s="19"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="G49" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="G49" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4">
         <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4">
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="18" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="18" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="18" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="18" t="s">
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="11"/>
+      <c r="G61" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="G49:G61"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="G1:G5"/>
     <mergeCell ref="G7:G13"/>
     <mergeCell ref="G15:G20"/>
@@ -3426,12 +3427,17 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="G49:G61"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B36:E36"/>
@@ -3445,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,81 +3465,81 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -3544,75 +3550,75 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="26"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -3623,44 +3629,44 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="11"/>
+        <v>185</v>
+      </c>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -3671,120 +3677,120 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>186</v>
+      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="G18" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>189</v>
+      </c>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -3795,106 +3801,106 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="G26" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="G28" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>193</v>
+      </c>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4">
         <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -3905,56 +3911,56 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="G33" s="28"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="G35" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="G36" s="11"/>
+      <c r="B36" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -3965,44 +3971,44 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>198</v>
+      </c>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -4013,139 +4019,139 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="G41" s="28"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="G43" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="G43" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="G44" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="K48" s="26"/>
+      <c r="G48" s="28"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="4">
         <v>250</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -4156,140 +4162,140 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="11"/>
+        <v>205</v>
+      </c>
+      <c r="G51" s="28"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="G53" s="27" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="G53" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="G54" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G56" s="28"/>
+        <v>206</v>
+      </c>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="4">
         <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" s="28"/>
+        <v>207</v>
+      </c>
+      <c r="G57" s="30"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="4">
         <v>200</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G58" s="28"/>
+        <v>208</v>
+      </c>
+      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="28"/>
+        <v>198</v>
+      </c>
+      <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G60" s="28"/>
+        <v>209</v>
+      </c>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -4300,56 +4306,56 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G61" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="G61" s="31"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="G63" s="15" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="G63" s="32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="G64" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G65" s="15"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -4360,71 +4366,66 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="G68" s="32"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="G69" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="G43:G51"/>
-    <mergeCell ref="G53:G61"/>
-    <mergeCell ref="G63:G69"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G9:G16"/>
     <mergeCell ref="G18:G26"/>
@@ -4434,12 +4435,17 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="G43:G51"/>
+    <mergeCell ref="G53:G61"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B43:E43"/>
@@ -4465,37 +4471,37 @@
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Tabele SQL.xlsx
+++ b/Tabele SQL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
     <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
     <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
+    <sheet name="Arkusz6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -669,6 +670,78 @@
   </si>
   <si>
     <t>Calendar</t>
+  </si>
+  <si>
+    <t>Tabele</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdarzenie </t>
+  </si>
+  <si>
+    <t>Wynik</t>
+  </si>
+  <si>
+    <t>GetReport</t>
+  </si>
+  <si>
+    <t>Report Table</t>
+  </si>
+  <si>
+    <t>Procedura tworzy tabelę będącą raportem czasu pracy za wybrany okres wybranego pracownika</t>
+  </si>
+  <si>
+    <t>rcpRaport</t>
+  </si>
+  <si>
+    <t>ZadPodsumowania</t>
+  </si>
+  <si>
+    <t>GetZadReport</t>
+  </si>
+  <si>
+    <t>Procedura tworzy tabelę będącą raportem czasu pracy przy zadaniach za wybrany okres wybranego pracownika</t>
+  </si>
+  <si>
+    <t>Procedura tworzy tabelę posiadającą jeden rekord, będącą podsumowaniem wybranego okresu rozliczeniowego</t>
+  </si>
+  <si>
+    <t>rcpPodsumowania</t>
+  </si>
+  <si>
+    <t>Tabela</t>
+  </si>
+  <si>
+    <t>rcpTransactionAll</t>
+  </si>
+  <si>
+    <t>AFTER INSERT</t>
+  </si>
+  <si>
+    <t>W przypadku transakcji typu wejście zostaje sparwdzona tabela rcpPairsIO i jeśli na dany dzień nie ma zakończonych par, zostaje utworzony nowy rekord z pustą transakcją Stop</t>
+  </si>
+  <si>
+    <t>PARY_TRANS</t>
+  </si>
+  <si>
+    <t>PARY_TRANS_OUT</t>
+  </si>
+  <si>
+    <t>PARY_TRANS_BREAK</t>
+  </si>
+  <si>
+    <t>PARY_TRANS_BREAK_END</t>
+  </si>
+  <si>
+    <t>W przypadku transakcji typu początek przerwy zostaje sparwdzona tabela rcpPairsOnB i jeśli na dany dzień nie ma zakończonych par, zostaje utworzony nowy rekord z pustą transakcją Stop</t>
+  </si>
+  <si>
+    <t>W przypadku transakcji typu wyjście zostaje sparwdzona tabela rcpPairsIO i jeśli na dany dzień jest rozpoczęta para z transakcja Start to zostaje dopełniona transakcją Stop</t>
+  </si>
+  <si>
+    <t>W przypadku transakcji typu koniec przerwy zostaje sprawdzona tabela rcpPairsOnB i jeśli na dany dzień jest rozpoczęta para z transakcją Start to zostaje dopełniona transakcją Stop</t>
   </si>
 </sst>
 </file>
@@ -815,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -847,6 +920,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -856,14 +941,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,21 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,6 +970,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,13 +1325,13 @@
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1241,13 +1339,13 @@
       <c r="A2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1265,7 +1363,7 @@
       <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1283,7 +1381,7 @@
       <c r="E4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1301,7 +1399,7 @@
       <c r="E5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1319,7 +1417,7 @@
       <c r="E6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1337,7 +1435,7 @@
       <c r="E7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1355,19 +1453,19 @@
       <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="28" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1375,13 +1473,13 @@
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1399,7 +1497,7 @@
       <c r="E12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1417,7 +1515,7 @@
       <c r="E13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1435,7 +1533,7 @@
       <c r="E14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1453,7 +1551,7 @@
       <c r="E15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1471,7 +1569,7 @@
       <c r="E16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1489,19 +1587,19 @@
       <c r="E17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="28" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1509,13 +1607,13 @@
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1533,7 +1631,7 @@
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1551,7 +1649,7 @@
       <c r="E22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1569,7 +1667,7 @@
       <c r="E23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1587,7 +1685,7 @@
       <c r="E24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1605,7 +1703,7 @@
       <c r="E25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1623,7 +1721,7 @@
       <c r="E26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1641,7 +1739,7 @@
       <c r="E27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1659,19 +1757,19 @@
       <c r="E28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="G31" s="28" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="G31" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1679,13 +1777,13 @@
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1703,7 +1801,7 @@
       <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1721,7 +1819,7 @@
       <c r="E34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
@@ -1739,7 +1837,7 @@
       <c r="E35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1757,19 +1855,19 @@
       <c r="E36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="G39" s="28" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="G39" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1777,13 +1875,13 @@
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="G40" s="28"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1801,7 +1899,7 @@
       <c r="E41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -1819,7 +1917,7 @@
       <c r="E42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1837,7 +1935,7 @@
       <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
@@ -1855,19 +1953,19 @@
       <c r="E44" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="G47" s="28" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="G47" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1875,13 +1973,13 @@
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="G48" s="28"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1899,7 +1997,7 @@
       <c r="E49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1917,7 +2015,7 @@
       <c r="E50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -1935,7 +2033,7 @@
       <c r="E51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -1953,15 +2051,10 @@
       <c r="E52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="G10:G17"/>
@@ -1975,6 +2068,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2002,23 +2100,23 @@
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2560,13 +2658,13 @@
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2574,13 +2672,13 @@
       <c r="A2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2598,7 +2696,7 @@
       <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2614,7 +2712,7 @@
       <c r="E4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2632,7 +2730,7 @@
       <c r="E5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" s="10"/>
@@ -2641,13 +2739,13 @@
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="28" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2655,13 +2753,13 @@
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2679,7 +2777,7 @@
       <c r="E9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2695,7 +2793,7 @@
       <c r="E10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2711,7 +2809,7 @@
       <c r="E11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2727,7 +2825,7 @@
       <c r="E12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2743,7 +2841,7 @@
       <c r="E13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="10"/>
@@ -2752,13 +2850,13 @@
       <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2766,13 +2864,13 @@
       <c r="A16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2790,7 +2888,7 @@
       <c r="E17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2806,7 +2904,7 @@
       <c r="E18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -2822,7 +2920,7 @@
       <c r="E19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -2838,7 +2936,7 @@
       <c r="E20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="10"/>
@@ -2847,13 +2945,13 @@
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="G22" s="28" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="G22" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2861,13 +2959,13 @@
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -2885,7 +2983,7 @@
       <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2901,7 +2999,7 @@
       <c r="E25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -2917,7 +3015,7 @@
       <c r="E26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -2933,7 +3031,7 @@
       <c r="E27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="10"/>
@@ -2942,13 +3040,13 @@
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="G29" s="28" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="G29" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2956,13 +3054,13 @@
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -2980,7 +3078,7 @@
       <c r="E31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -2996,7 +3094,7 @@
       <c r="E32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -3012,7 +3110,7 @@
       <c r="E33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -3028,19 +3126,19 @@
       <c r="E34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="G36" s="28" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="G36" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3048,13 +3146,13 @@
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="G37" s="28"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -3072,7 +3170,7 @@
       <c r="E38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3088,7 +3186,7 @@
       <c r="E39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -3104,7 +3202,7 @@
       <c r="E40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -3120,7 +3218,7 @@
       <c r="E41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G42" s="10"/>
@@ -3129,13 +3227,13 @@
       <c r="A43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="G43" s="28" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="G43" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3143,13 +3241,13 @@
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="G44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -3167,7 +3265,7 @@
       <c r="E45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -3183,7 +3281,7 @@
       <c r="E46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -3201,7 +3299,7 @@
       <c r="E47" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G48" s="10"/>
@@ -3210,13 +3308,13 @@
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="G49" s="28" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="G49" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3224,13 +3322,13 @@
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="G50" s="28"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -3248,7 +3346,7 @@
       <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -3264,7 +3362,7 @@
       <c r="E52" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -3282,7 +3380,7 @@
       <c r="E53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -3300,7 +3398,7 @@
       <c r="E54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -3318,7 +3416,7 @@
       <c r="E55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
@@ -3334,7 +3432,7 @@
       <c r="E56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -3350,7 +3448,7 @@
       <c r="E57" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -3366,7 +3464,7 @@
       <c r="E58" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
@@ -3382,7 +3480,7 @@
       <c r="E59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
@@ -3398,7 +3496,7 @@
       <c r="E60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
@@ -3414,21 +3512,10 @@
       <c r="E61" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G1:G5"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="G29:G34"/>
     <mergeCell ref="G36:G41"/>
     <mergeCell ref="G43:G47"/>
@@ -3442,6 +3529,17 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3451,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -3467,13 +3565,13 @@
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3481,13 +3579,13 @@
       <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -3505,7 +3603,7 @@
       <c r="E4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3521,7 +3619,7 @@
       <c r="E5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -3539,7 +3637,7 @@
       <c r="E6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -3555,7 +3653,7 @@
       <c r="E7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G8" s="12"/>
@@ -3564,13 +3662,13 @@
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="28" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="G9" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3578,13 +3676,13 @@
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3602,7 +3700,7 @@
       <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -3618,7 +3716,7 @@
       <c r="E12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -3634,7 +3732,7 @@
       <c r="E13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -3650,7 +3748,7 @@
       <c r="E14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -3666,7 +3764,7 @@
       <c r="E15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -3682,19 +3780,19 @@
       <c r="E16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="G18" s="28" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3702,13 +3800,13 @@
       <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -3726,7 +3824,7 @@
       <c r="E20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -3742,7 +3840,7 @@
       <c r="E21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -3758,7 +3856,7 @@
       <c r="E22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -3774,7 +3872,7 @@
       <c r="E23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -3790,7 +3888,7 @@
       <c r="E24" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -3806,7 +3904,7 @@
       <c r="E25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -3822,19 +3920,19 @@
       <c r="E26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="G28" s="28" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="G28" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3842,13 +3940,13 @@
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -3866,7 +3964,7 @@
       <c r="E30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -3882,7 +3980,7 @@
       <c r="E31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -3900,7 +3998,7 @@
       <c r="E32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -3916,19 +4014,19 @@
       <c r="E33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="G35" s="28" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="G35" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3936,13 +4034,13 @@
       <c r="A36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="G36" s="28"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -3960,7 +4058,7 @@
       <c r="E37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -3976,7 +4074,7 @@
       <c r="E38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3992,7 +4090,7 @@
       <c r="E39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -4008,7 +4106,7 @@
       <c r="E40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -4024,19 +4122,19 @@
       <c r="E41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="G43" s="28" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="G43" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4044,13 +4142,13 @@
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="G44" s="28"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -4068,7 +4166,7 @@
       <c r="E45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -4084,7 +4182,7 @@
       <c r="E46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -4100,7 +4198,7 @@
       <c r="E47" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
@@ -4116,7 +4214,7 @@
       <c r="E48" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="20"/>
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -4135,7 +4233,7 @@
       <c r="E49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -4151,7 +4249,7 @@
       <c r="E50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -4167,19 +4265,19 @@
       <c r="E51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="G53" s="29" t="s">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="G53" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4187,13 +4285,13 @@
       <c r="A54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-      <c r="G54" s="30"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -4211,7 +4309,7 @@
       <c r="E55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="30"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -4227,7 +4325,7 @@
       <c r="E56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="30"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -4245,7 +4343,7 @@
       <c r="E57" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="30"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -4263,7 +4361,7 @@
       <c r="E58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -4279,7 +4377,7 @@
       <c r="E59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="30"/>
+      <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -4295,7 +4393,7 @@
       <c r="E60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G60" s="30"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -4311,19 +4409,19 @@
       <c r="E61" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G61" s="31"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
-      <c r="G63" s="32" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="G63" s="29" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4331,13 +4429,13 @@
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="18"/>
-      <c r="G64" s="32"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -4355,7 +4453,7 @@
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="32"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -4371,7 +4469,7 @@
       <c r="E66" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G66" s="32"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -4387,7 +4485,7 @@
       <c r="E67" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G67" s="32"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -4406,7 +4504,7 @@
       <c r="F68" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="32"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -4422,21 +4520,10 @@
       <c r="E69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G69" s="32"/>
+      <c r="G69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="G18:G26"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
     <mergeCell ref="G35:G41"/>
     <mergeCell ref="G43:G51"/>
     <mergeCell ref="G53:G61"/>
@@ -4450,6 +4537,17 @@
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4457,113 +4555,541 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E14"/>
+  <dimension ref="A4:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="39"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
+  <mergeCells count="16">
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+    </row>
+    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
